--- a/Corpus/Default_Messages.xlsx
+++ b/Corpus/Default_Messages.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Siva\Projects\Acadia\Chatbot_Git\Masori-Chatbot-Dev\Corpus\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932A0944-7E22-4A52-BCA3-5B1549193A29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -35,13 +36,14 @@
     <t>welcome</t>
   </si>
   <si>
-    <t>Default Message</t>
+    <t>Hi my name is SAM. 
+How can I help you today ?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -88,9 +90,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,17 +375,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" customWidth="1"/>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="2" max="2" width="49.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -391,11 +396,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Corpus/Default_Messages.xlsx
+++ b/Corpus/Default_Messages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Siva\Projects\Acadia\Chatbot_Git\Masori-Chatbot-Dev\Corpus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932A0944-7E22-4A52-BCA3-5B1549193A29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92031FCE-5E78-4850-9FA3-C9423BA3E53D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Corpus/Default_Messages.xlsx
+++ b/Corpus/Default_Messages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Siva\Projects\Acadia\Chatbot_Git\Masori-Chatbot-Dev\Corpus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workouts\Projects\Acadia\Masori-Chatbot-Dev-main\Masori-Chatbot-Dev-main\Corpus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92031FCE-5E78-4850-9FA3-C9423BA3E53D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0273DAB-C9E6-4452-B9ED-F6FABE55C2E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -36,8 +36,8 @@
     <t>welcome</t>
   </si>
   <si>
-    <t>Hi my name is SAM. 
-How can I help you today ?</t>
+    <t>Hello, my name is SAM. 
+I am a virtual assistant, here to help you with information about Parkinson's Disease and Nuplazid.</t>
   </si>
 </sst>
 </file>
@@ -379,16 +379,16 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.21875" customWidth="1"/>
-    <col min="2" max="2" width="49.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="49.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -396,7 +396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>

--- a/Corpus/Default_Messages.xlsx
+++ b/Corpus/Default_Messages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workouts\Projects\Acadia\Masori-Chatbot-Dev-main\Masori-Chatbot-Dev-main\Corpus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Siva\Projects\Acadia\Chatbot_Git\Masori-Chatbot-Dev\Corpus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0273DAB-C9E6-4452-B9ED-F6FABE55C2E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A5133F-C2B5-4537-8F25-372CD02C6B6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9936" yWindow="3012" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -36,8 +36,9 @@
     <t>welcome</t>
   </si>
   <si>
-    <t>Hello, my name is SAM. 
-I am a virtual assistant, here to help you with information about Parkinson's Disease and Nuplazid.</t>
+    <t>Hello and Welcome, 
+My Name is SAM your Search Assistant Manager.
+How may I help you?</t>
   </si>
 </sst>
 </file>
@@ -382,13 +383,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="49.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="49.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -396,7 +397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>

--- a/Corpus/Default_Messages.xlsx
+++ b/Corpus/Default_Messages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Siva\Projects\Acadia\Chatbot_Git\Masori-Chatbot-Dev\Corpus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A5133F-C2B5-4537-8F25-372CD02C6B6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89CDE3B-431A-4880-B7B4-B4D8B28DBA76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9936" yWindow="3012" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -36,9 +36,7 @@
     <t>welcome</t>
   </si>
   <si>
-    <t>Hello and Welcome, 
-My Name is SAM your Search Assistant Manager.
-How may I help you?</t>
+    <t>Hi, I am SAM, the Search Assistant Manager. How can I help you today ?</t>
   </si>
 </sst>
 </file>
@@ -397,7 +395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
